--- a/data/trans_camb/P10_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 6,1</t>
+          <t>-6,18; 5,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 4,77</t>
+          <t>-6,19; 5,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,53</t>
+          <t>-3,99; 4,05</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 7,13</t>
+          <t>-6,45; 6,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 5,47</t>
+          <t>-6,53; 6,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 4,02</t>
+          <t>-4,22; 4,5</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-0,47</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 8,1</t>
+          <t>-11,4; 9,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 8,07</t>
+          <t>-8,45; 6,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 6,13</t>
+          <t>-7,02; 5,77</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>-0,54%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 9,74</t>
+          <t>-12,87; 12,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 10,07</t>
+          <t>-9,32; 8,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 7,49</t>
+          <t>-7,73; 6,87</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 26,92</t>
+          <t>-44,29; 41,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 12,37</t>
+          <t>-13,25; 15,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 15,56</t>
+          <t>-27,19; 25,2</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>-0,38%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 43,52</t>
+          <t>-53,94; 78,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 16,04</t>
+          <t>-14,23; 19,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 21,67</t>
+          <t>-31,71; 37,44</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 6,02</t>
+          <t>-8,63; 7,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,13</t>
+          <t>-4,86; 4,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,05</t>
+          <t>-4,67; 4,4</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>-0,15%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 7,2</t>
+          <t>-9,72; 8,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,86</t>
+          <t>-5,38; 5,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,77</t>
+          <t>-5,23; 5,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.9905874630064759</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.9335401234135454</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.9601104606088429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,18; 5,87</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 5,54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 4,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.111187861170892</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.098613998726934</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.109584529695057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.450145535714324</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.387588668642636</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.550523257577222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 6,6</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,53; 6,26</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 4,5</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.010748439137915</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.01025867090010007</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01048955558329026</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.05302345154711664</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.05386828487242041</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.03321759587573379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,4; 9,46</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 6,94</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 5,77</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.07253721934373349</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.07210818169844942</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.05147109523319274</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,56%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,57%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,54%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.3482403784513255</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.03570209866686769</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1060751669308191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-12,87; 12,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,32; 8,22</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,73; 6,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.4241032390035</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.92643516519473</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.226206174238806</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.14052046231874</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.302166697277812</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.386902487803203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-44,29; 41,57</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-13,25; 15,33</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-27,19; 25,2</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.004085832267626061</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.0004043062716896722</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.001221017659144801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,33%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,38%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1141326296841637</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.08763535090640044</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.06921933479289794</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-53,94; 78,63</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-14,23; 19,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-31,71; 37,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1284705912143265</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.08776936657179575</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.07701486644093052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.335987515946657</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.079034140124124</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.6111964376797507</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,63; 7,34</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 4,4</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 4,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-44.27030073374606</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.06209259621171</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-24.72720573162935</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,26%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,07%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,15%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>41.84175584359037</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>15.60600028666085</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>26.01222679363721</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-9,72; 8,85</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; 5,03</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 5,05</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.01925878247463314</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.01216683934107896</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.007746405747300867</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.5369437500815581</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1411394534015004</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2879210040570185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.7856189807530819</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1958394073057295</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.3963419563403745</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.6045780151806346</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5581648205477574</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5733764501667404</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.208060416282319</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.045466616038719</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.722360516841574</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.119924521142325</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.78559097386427</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.11474450241765</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.006964735893893637</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.006223072812207627</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.006489867332010834</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.0822874855218494</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.04382695491281195</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.0411779703116919</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.09830566636095368</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.05585841878984333</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.05896613300786212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
